--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928EDE32-30AF-8444-AB48-59DBFFD070A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555C9461-BE61-6242-8DCC-74704893F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G182" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G183" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F182" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F183" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -4980,6 +4980,31 @@
       <c r="G182" s="2">
         <f t="shared" si="5"/>
         <v>0.64457831325301207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B183">
+        <v>238</v>
+      </c>
+      <c r="C183">
+        <v>187</v>
+      </c>
+      <c r="D183">
+        <v>156</v>
+      </c>
+      <c r="E183">
+        <v>106</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G183" s="2">
+        <f t="shared" si="5"/>
+        <v>0.67948717948717952</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555C9461-BE61-6242-8DCC-74704893F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5563E-C4CD-E046-9FAA-1ACD411E5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G183" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G184" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F183" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F184" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5005,6 +5005,31 @@
       <c r="G183" s="2">
         <f t="shared" si="5"/>
         <v>0.67948717948717952</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B184">
+        <v>238</v>
+      </c>
+      <c r="C184">
+        <v>181</v>
+      </c>
+      <c r="D184">
+        <v>156</v>
+      </c>
+      <c r="E184">
+        <v>109</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="6"/>
+        <v>0.76050420168067223</v>
+      </c>
+      <c r="G184" s="2">
+        <f t="shared" si="5"/>
+        <v>0.69871794871794868</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5563E-C4CD-E046-9FAA-1ACD411E5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39BA0A-D020-C04E-9AE9-1A6ED03E93A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G184" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G188" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F184" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F188" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5030,6 +5030,106 @@
       <c r="G184" s="2">
         <f t="shared" si="5"/>
         <v>0.69871794871794868</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B185">
+        <v>238</v>
+      </c>
+      <c r="C185">
+        <v>166</v>
+      </c>
+      <c r="D185">
+        <v>146</v>
+      </c>
+      <c r="E185">
+        <v>107</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="6"/>
+        <v>0.69747899159663862</v>
+      </c>
+      <c r="G185" s="2">
+        <f t="shared" si="5"/>
+        <v>0.73287671232876717</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B186">
+        <v>238</v>
+      </c>
+      <c r="C186">
+        <v>156</v>
+      </c>
+      <c r="D186">
+        <v>146</v>
+      </c>
+      <c r="E186">
+        <v>98</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="6"/>
+        <v>0.65546218487394958</v>
+      </c>
+      <c r="G186" s="2">
+        <f t="shared" si="5"/>
+        <v>0.67123287671232879</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B187">
+        <v>238</v>
+      </c>
+      <c r="C187">
+        <v>148</v>
+      </c>
+      <c r="D187">
+        <v>146</v>
+      </c>
+      <c r="E187">
+        <v>95</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="6"/>
+        <v>0.62184873949579833</v>
+      </c>
+      <c r="G187" s="2">
+        <f t="shared" si="5"/>
+        <v>0.65068493150684936</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B188">
+        <v>238</v>
+      </c>
+      <c r="C188">
+        <v>133</v>
+      </c>
+      <c r="D188">
+        <v>146</v>
+      </c>
+      <c r="E188">
+        <v>94</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="6"/>
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="G188" s="2">
+        <f t="shared" si="5"/>
+        <v>0.64383561643835618</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39BA0A-D020-C04E-9AE9-1A6ED03E93A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1C039-A5B0-ED40-8202-23A7BC24DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G188" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G189" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F188" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F189" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5130,6 +5130,31 @@
       <c r="G188" s="2">
         <f t="shared" si="5"/>
         <v>0.64383561643835618</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B189">
+        <v>238</v>
+      </c>
+      <c r="C189">
+        <v>126</v>
+      </c>
+      <c r="D189">
+        <v>146</v>
+      </c>
+      <c r="E189">
+        <v>92</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="6"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="G189" s="2">
+        <f t="shared" si="5"/>
+        <v>0.63013698630136983</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1C039-A5B0-ED40-8202-23A7BC24DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A1898-FAAA-0D4F-8906-E7ABA94D8F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="42320" yWindow="500" windowWidth="19080" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G189" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G190" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F189" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F190" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5155,6 +5155,31 @@
       <c r="G189" s="2">
         <f t="shared" si="5"/>
         <v>0.63013698630136983</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B190">
+        <v>238</v>
+      </c>
+      <c r="C190">
+        <v>122</v>
+      </c>
+      <c r="D190">
+        <v>146</v>
+      </c>
+      <c r="E190">
+        <v>87</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51260504201680668</v>
+      </c>
+      <c r="G190" s="2">
+        <f t="shared" si="5"/>
+        <v>0.59589041095890416</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A1898-FAAA-0D4F-8906-E7ABA94D8F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6AF1D-3151-D844-A712-5076B61A6F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42320" yWindow="500" windowWidth="19080" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G190" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G192" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F190" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F192" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5180,6 +5180,56 @@
       <c r="G190" s="2">
         <f t="shared" si="5"/>
         <v>0.59589041095890416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B191">
+        <v>238</v>
+      </c>
+      <c r="C191">
+        <v>119</v>
+      </c>
+      <c r="D191">
+        <v>136</v>
+      </c>
+      <c r="E191">
+        <v>81</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="G191" s="2">
+        <f t="shared" si="5"/>
+        <v>0.59558823529411764</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B192">
+        <v>238</v>
+      </c>
+      <c r="C192">
+        <v>120</v>
+      </c>
+      <c r="D192">
+        <v>136</v>
+      </c>
+      <c r="E192">
+        <v>70</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="6"/>
+        <v>0.50420168067226889</v>
+      </c>
+      <c r="G192" s="2">
+        <f t="shared" si="5"/>
+        <v>0.51470588235294112</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6AF1D-3151-D844-A712-5076B61A6F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD185C62-6AB5-1F42-9C39-A99DF791C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42320" yWindow="500" windowWidth="19080" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G192" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G194" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F192" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F194" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5230,6 +5230,56 @@
       <c r="G192" s="2">
         <f t="shared" si="5"/>
         <v>0.51470588235294112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B193">
+        <v>238</v>
+      </c>
+      <c r="C193">
+        <v>122</v>
+      </c>
+      <c r="D193">
+        <v>136</v>
+      </c>
+      <c r="E193">
+        <v>73</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51260504201680668</v>
+      </c>
+      <c r="G193" s="2">
+        <f t="shared" si="5"/>
+        <v>0.53676470588235292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B194">
+        <v>238</v>
+      </c>
+      <c r="C194">
+        <v>114</v>
+      </c>
+      <c r="D194">
+        <v>136</v>
+      </c>
+      <c r="E194">
+        <v>75</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="6"/>
+        <v>0.47899159663865548</v>
+      </c>
+      <c r="G194" s="2">
+        <f t="shared" si="5"/>
+        <v>0.55147058823529416</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD185C62-6AB5-1F42-9C39-A99DF791C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6CE18-6209-FB45-8BD3-18ACF8BA3E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G194" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G195" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F194" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F195" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5280,6 +5280,31 @@
       <c r="G194" s="2">
         <f t="shared" si="5"/>
         <v>0.55147058823529416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B195">
+        <v>238</v>
+      </c>
+      <c r="C195">
+        <v>116</v>
+      </c>
+      <c r="D195">
+        <v>136</v>
+      </c>
+      <c r="E195">
+        <v>73</v>
+      </c>
+      <c r="F195" s="2">
+        <f t="shared" si="6"/>
+        <v>0.48739495798319327</v>
+      </c>
+      <c r="G195" s="2">
+        <f t="shared" si="5"/>
+        <v>0.53676470588235292</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6CE18-6209-FB45-8BD3-18ACF8BA3E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0482FE-EF20-724B-8475-797A9A77A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,7 +3728,7 @@
         <v>0.97402597402597402</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" ref="G132:G195" si="5">E132/D132</f>
+        <f t="shared" ref="G132:G196" si="5">E132/D132</f>
         <v>0.84864864864864864</v>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F195" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F202" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5305,6 +5305,181 @@
       <c r="G195" s="2">
         <f t="shared" si="5"/>
         <v>0.53676470588235292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B196">
+        <v>228</v>
+      </c>
+      <c r="C196">
+        <v>110</v>
+      </c>
+      <c r="D196">
+        <v>136</v>
+      </c>
+      <c r="E196">
+        <v>68</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" si="6"/>
+        <v>0.48245614035087719</v>
+      </c>
+      <c r="G196" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B197">
+        <v>228</v>
+      </c>
+      <c r="C197">
+        <v>108</v>
+      </c>
+      <c r="D197">
+        <v>136</v>
+      </c>
+      <c r="E197">
+        <v>61</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="G197" s="2">
+        <f t="shared" ref="G197:G202" si="7">E197/D197</f>
+        <v>0.4485294117647059</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B198">
+        <v>207</v>
+      </c>
+      <c r="C198">
+        <v>104</v>
+      </c>
+      <c r="D198">
+        <v>136</v>
+      </c>
+      <c r="E198">
+        <v>56</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="6"/>
+        <v>0.50241545893719808</v>
+      </c>
+      <c r="G198" s="2">
+        <f t="shared" si="7"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B199">
+        <v>207</v>
+      </c>
+      <c r="C199">
+        <v>103</v>
+      </c>
+      <c r="D199">
+        <v>136</v>
+      </c>
+      <c r="E199">
+        <v>48</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" si="6"/>
+        <v>0.49758454106280192</v>
+      </c>
+      <c r="G199" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B200">
+        <v>207</v>
+      </c>
+      <c r="C200">
+        <v>96</v>
+      </c>
+      <c r="D200">
+        <v>136</v>
+      </c>
+      <c r="E200">
+        <v>46</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46376811594202899</v>
+      </c>
+      <c r="G200" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33823529411764708</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B201">
+        <v>207</v>
+      </c>
+      <c r="C201">
+        <v>97</v>
+      </c>
+      <c r="D201">
+        <v>136</v>
+      </c>
+      <c r="E201">
+        <v>44</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46859903381642515</v>
+      </c>
+      <c r="G201" s="2">
+        <f t="shared" si="7"/>
+        <v>0.3235294117647059</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B202">
+        <v>207</v>
+      </c>
+      <c r="C202">
+        <v>90</v>
+      </c>
+      <c r="D202">
+        <v>136</v>
+      </c>
+      <c r="E202">
+        <v>42</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="6"/>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="G202" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30882352941176472</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0482FE-EF20-724B-8475-797A9A77A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54897D-A5C8-B548-AA18-A10E3AF5BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F202" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F203" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G202" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G203" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5480,6 +5480,31 @@
       <c r="G202" s="2">
         <f t="shared" si="7"/>
         <v>0.30882352941176472</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B203">
+        <v>207</v>
+      </c>
+      <c r="C203">
+        <v>86</v>
+      </c>
+      <c r="D203">
+        <v>116</v>
+      </c>
+      <c r="E203">
+        <v>41</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="6"/>
+        <v>0.41545893719806765</v>
+      </c>
+      <c r="G203" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35344827586206895</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF54897D-A5C8-B548-AA18-A10E3AF5BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601D4225-C63A-D24B-8C05-7A48245EA947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F203" sqref="F203"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F203" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F204" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G203" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G204" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5505,6 +5505,31 @@
       <c r="G203" s="2">
         <f t="shared" si="7"/>
         <v>0.35344827586206895</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B204">
+        <v>187</v>
+      </c>
+      <c r="C204">
+        <v>93</v>
+      </c>
+      <c r="D204">
+        <v>116</v>
+      </c>
+      <c r="E204">
+        <v>37</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="6"/>
+        <v>0.49732620320855614</v>
+      </c>
+      <c r="G204" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31896551724137934</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601D4225-C63A-D24B-8C05-7A48245EA947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D0B41-B6B8-B548-9254-169FC82980C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F204" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F205" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G204" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G205" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5530,6 +5530,31 @@
       <c r="G204" s="2">
         <f t="shared" si="7"/>
         <v>0.31896551724137934</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B205">
+        <v>177</v>
+      </c>
+      <c r="C205">
+        <v>95</v>
+      </c>
+      <c r="D205">
+        <v>116</v>
+      </c>
+      <c r="E205">
+        <v>40</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="6"/>
+        <v>0.53672316384180796</v>
+      </c>
+      <c r="G205" s="2">
+        <f t="shared" si="7"/>
+        <v>0.34482758620689657</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D0B41-B6B8-B548-9254-169FC82980C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C324CBF2-D952-E446-AB70-8A2BCA72E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F205" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F209" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G205" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G209" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5555,6 +5555,106 @@
       <c r="G205" s="2">
         <f t="shared" si="7"/>
         <v>0.34482758620689657</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B206">
+        <v>177</v>
+      </c>
+      <c r="C206">
+        <v>83</v>
+      </c>
+      <c r="D206">
+        <v>106</v>
+      </c>
+      <c r="E206">
+        <v>35</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46892655367231639</v>
+      </c>
+      <c r="G206" s="2">
+        <f t="shared" si="7"/>
+        <v>0.330188679245283</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B207">
+        <v>177</v>
+      </c>
+      <c r="C207">
+        <v>83</v>
+      </c>
+      <c r="D207">
+        <v>106</v>
+      </c>
+      <c r="E207">
+        <v>36</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46892655367231639</v>
+      </c>
+      <c r="G207" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33962264150943394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B208">
+        <v>177</v>
+      </c>
+      <c r="C208">
+        <v>80</v>
+      </c>
+      <c r="D208">
+        <v>106</v>
+      </c>
+      <c r="E208">
+        <v>38</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="6"/>
+        <v>0.4519774011299435</v>
+      </c>
+      <c r="G208" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35849056603773582</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B209">
+        <v>177</v>
+      </c>
+      <c r="C209">
+        <v>77</v>
+      </c>
+      <c r="D209">
+        <v>106</v>
+      </c>
+      <c r="E209">
+        <v>37</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" si="6"/>
+        <v>0.43502824858757061</v>
+      </c>
+      <c r="G209" s="2">
+        <f t="shared" si="7"/>
+        <v>0.34905660377358488</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C324CBF2-D952-E446-AB70-8A2BCA72E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1BAE5E-FAE3-5D43-BF78-D8C9D41B3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F209" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F211" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G209" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G211" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5655,6 +5655,56 @@
       <c r="G209" s="2">
         <f t="shared" si="7"/>
         <v>0.34905660377358488</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B210">
+        <v>177</v>
+      </c>
+      <c r="C210">
+        <v>70</v>
+      </c>
+      <c r="D210">
+        <v>106</v>
+      </c>
+      <c r="E210">
+        <v>32</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="6"/>
+        <v>0.39548022598870058</v>
+      </c>
+      <c r="G210" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30188679245283018</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B211">
+        <v>177</v>
+      </c>
+      <c r="C211">
+        <v>66</v>
+      </c>
+      <c r="D211">
+        <v>106</v>
+      </c>
+      <c r="E211">
+        <v>33</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="6"/>
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="G211" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31132075471698112</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1BAE5E-FAE3-5D43-BF78-D8C9D41B3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650CC863-149A-E44B-A57A-180875958595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20120" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4124,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ref="F148:F211" si="6">C148/B148</f>
+        <f t="shared" ref="F148:F212" si="6">C148/B148</f>
         <v>0.97489539748953979</v>
       </c>
       <c r="G148" s="2">
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G211" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G218" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5705,6 +5705,181 @@
       <c r="G211" s="2">
         <f t="shared" si="7"/>
         <v>0.31132075471698112</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B212">
+        <v>177</v>
+      </c>
+      <c r="C212">
+        <v>67</v>
+      </c>
+      <c r="D212">
+        <v>106</v>
+      </c>
+      <c r="E212">
+        <v>28</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="6"/>
+        <v>0.37853107344632769</v>
+      </c>
+      <c r="G212" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26415094339622641</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B213">
+        <v>177</v>
+      </c>
+      <c r="C213">
+        <v>62</v>
+      </c>
+      <c r="D213">
+        <v>96</v>
+      </c>
+      <c r="E213">
+        <v>25</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" ref="F213:F218" si="8">C213/B213</f>
+        <v>0.35028248587570621</v>
+      </c>
+      <c r="G213" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26041666666666669</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B214">
+        <v>160</v>
+      </c>
+      <c r="C214">
+        <v>50</v>
+      </c>
+      <c r="D214">
+        <v>86</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="8"/>
+        <v>0.3125</v>
+      </c>
+      <c r="G214" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30232558139534882</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B215">
+        <v>137</v>
+      </c>
+      <c r="C215">
+        <v>49</v>
+      </c>
+      <c r="D215">
+        <v>86</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35766423357664234</v>
+      </c>
+      <c r="G215" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30232558139534882</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B216">
+        <v>137</v>
+      </c>
+      <c r="C216">
+        <v>48</v>
+      </c>
+      <c r="D216">
+        <v>86</v>
+      </c>
+      <c r="E216">
+        <v>24</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35036496350364965</v>
+      </c>
+      <c r="G216" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27906976744186046</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B217">
+        <v>137</v>
+      </c>
+      <c r="C217">
+        <v>46</v>
+      </c>
+      <c r="D217">
+        <v>76</v>
+      </c>
+      <c r="E217">
+        <v>17</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="8"/>
+        <v>0.33576642335766421</v>
+      </c>
+      <c r="G217" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22368421052631579</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B218">
+        <v>137</v>
+      </c>
+      <c r="C218">
+        <v>49</v>
+      </c>
+      <c r="D218">
+        <v>76</v>
+      </c>
+      <c r="E218">
+        <v>17</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35766423357664234</v>
+      </c>
+      <c r="G218" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22368421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650CC863-149A-E44B-A57A-180875958595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE42606-C6B0-7646-B85D-4ED597C468CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+      <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G218" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G219" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F218" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F219" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -5880,6 +5880,31 @@
       <c r="G218" s="2">
         <f t="shared" si="7"/>
         <v>0.22368421052631579</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B219">
+        <v>137</v>
+      </c>
+      <c r="C219">
+        <v>49</v>
+      </c>
+      <c r="D219">
+        <v>68</v>
+      </c>
+      <c r="E219">
+        <v>18</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35766423357664234</v>
+      </c>
+      <c r="G219" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26470588235294118</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE42606-C6B0-7646-B85D-4ED597C468CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE92EF-17F0-DF43-AA0D-627435BB0234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G219" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G220" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F219" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F220" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -5903,6 +5903,31 @@
         <v>0.35766423357664234</v>
       </c>
       <c r="G219" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B220">
+        <v>137</v>
+      </c>
+      <c r="C220">
+        <v>49</v>
+      </c>
+      <c r="D220">
+        <v>68</v>
+      </c>
+      <c r="E220">
+        <v>18</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35766423357664234</v>
+      </c>
+      <c r="G220" s="2">
         <f t="shared" si="7"/>
         <v>0.26470588235294118</v>
       </c>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE92EF-17F0-DF43-AA0D-627435BB0234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C514C-AA86-1A48-8F5A-65B83D74188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G220" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G222" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F220" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F222" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -5930,6 +5930,56 @@
       <c r="G220" s="2">
         <f t="shared" si="7"/>
         <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B221">
+        <v>137</v>
+      </c>
+      <c r="C221">
+        <v>47</v>
+      </c>
+      <c r="D221">
+        <v>68</v>
+      </c>
+      <c r="E221">
+        <v>18</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34306569343065696</v>
+      </c>
+      <c r="G221" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B222">
+        <v>137</v>
+      </c>
+      <c r="C222">
+        <v>46</v>
+      </c>
+      <c r="D222">
+        <v>68</v>
+      </c>
+      <c r="E222">
+        <v>17</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="8"/>
+        <v>0.33576642335766421</v>
+      </c>
+      <c r="G222" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C514C-AA86-1A48-8F5A-65B83D74188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5867A9CB-CD02-A149-BE3B-C14A9D6917C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G222" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G223" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F222" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F223" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -5978,6 +5978,31 @@
         <v>0.33576642335766421</v>
       </c>
       <c r="G222" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B223">
+        <v>137</v>
+      </c>
+      <c r="C223">
+        <v>47</v>
+      </c>
+      <c r="D223">
+        <v>68</v>
+      </c>
+      <c r="E223">
+        <v>17</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34306569343065696</v>
+      </c>
+      <c r="G223" s="2">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5867A9CB-CD02-A149-BE3B-C14A9D6917C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FCB976-36CD-6745-88A8-2C7D93E58A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+      <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G223" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G224" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F223" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F224" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6005,6 +6005,31 @@
       <c r="G223" s="2">
         <f t="shared" si="7"/>
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B224">
+        <v>137</v>
+      </c>
+      <c r="C224">
+        <v>47</v>
+      </c>
+      <c r="D224">
+        <v>54</v>
+      </c>
+      <c r="E224">
+        <v>13</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34306569343065696</v>
+      </c>
+      <c r="G224" s="2">
+        <f t="shared" si="7"/>
+        <v>0.24074074074074073</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FCB976-36CD-6745-88A8-2C7D93E58A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D37AA-5DAE-CE40-8F4B-1E4C110BD55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G224" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G226" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F224" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F226" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6030,6 +6030,56 @@
       <c r="G224" s="2">
         <f t="shared" si="7"/>
         <v>0.24074074074074073</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B225">
+        <v>137</v>
+      </c>
+      <c r="C225">
+        <v>47</v>
+      </c>
+      <c r="D225">
+        <v>54</v>
+      </c>
+      <c r="E225">
+        <v>12</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34306569343065696</v>
+      </c>
+      <c r="G225" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B226">
+        <v>137</v>
+      </c>
+      <c r="C226">
+        <v>45</v>
+      </c>
+      <c r="D226">
+        <v>54</v>
+      </c>
+      <c r="E226">
+        <v>11</v>
+      </c>
+      <c r="F226" s="2">
+        <f t="shared" si="8"/>
+        <v>0.32846715328467152</v>
+      </c>
+      <c r="G226" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20370370370370369</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D37AA-5DAE-CE40-8F4B-1E4C110BD55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC7FC2-F60F-2641-BF01-AC9F186F52DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="39620" yWindow="1340" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="F226" sqref="F226"/>
+      <selection activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G226" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G227" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F226" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F227" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6080,6 +6080,31 @@
       <c r="G226" s="2">
         <f t="shared" si="7"/>
         <v>0.20370370370370369</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B227">
+        <v>137</v>
+      </c>
+      <c r="C227">
+        <v>44</v>
+      </c>
+      <c r="D227">
+        <v>54</v>
+      </c>
+      <c r="E227">
+        <v>10</v>
+      </c>
+      <c r="F227" s="2">
+        <f t="shared" si="8"/>
+        <v>0.32116788321167883</v>
+      </c>
+      <c r="G227" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18518518518518517</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC7FC2-F60F-2641-BF01-AC9F186F52DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BAC6F5-F1E2-C640-93E9-0F0741915820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39620" yWindow="1340" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ocupacao_uti" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G227" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G230" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F227" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F230" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6103,6 +6103,81 @@
         <v>0.32116788321167883</v>
       </c>
       <c r="G227" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B228">
+        <v>137</v>
+      </c>
+      <c r="C228">
+        <v>41</v>
+      </c>
+      <c r="D228">
+        <v>54</v>
+      </c>
+      <c r="E228">
+        <v>10</v>
+      </c>
+      <c r="F228" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G228" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B229">
+        <v>137</v>
+      </c>
+      <c r="C229">
+        <v>36</v>
+      </c>
+      <c r="D229">
+        <v>54</v>
+      </c>
+      <c r="E229">
+        <v>10</v>
+      </c>
+      <c r="F229" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26277372262773724</v>
+      </c>
+      <c r="G229" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B230">
+        <v>137</v>
+      </c>
+      <c r="C230">
+        <v>41</v>
+      </c>
+      <c r="D230">
+        <v>54</v>
+      </c>
+      <c r="E230">
+        <v>10</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G230" s="2">
         <f t="shared" si="7"/>
         <v>0.18518518518518517</v>
       </c>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BAC6F5-F1E2-C640-93E9-0F0741915820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5509172-C0F1-9446-B704-C3CE9E98DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G230" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G231" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F230" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F231" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6178,6 +6178,31 @@
         <v>0.29927007299270075</v>
       </c>
       <c r="G230" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B231">
+        <v>137</v>
+      </c>
+      <c r="C231">
+        <v>43</v>
+      </c>
+      <c r="D231">
+        <v>54</v>
+      </c>
+      <c r="E231">
+        <v>10</v>
+      </c>
+      <c r="F231" s="2">
+        <f t="shared" si="8"/>
+        <v>0.31386861313868614</v>
+      </c>
+      <c r="G231" s="2">
         <f t="shared" si="7"/>
         <v>0.18518518518518517</v>
       </c>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5509172-C0F1-9446-B704-C3CE9E98DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3288341-3EA8-684C-A2EB-8A00F34A744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="F231" sqref="F231"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G231" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G233" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F231" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F233" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6205,6 +6205,56 @@
       <c r="G231" s="2">
         <f t="shared" si="7"/>
         <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B232">
+        <v>137</v>
+      </c>
+      <c r="C232">
+        <v>39</v>
+      </c>
+      <c r="D232">
+        <v>54</v>
+      </c>
+      <c r="E232">
+        <v>8</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="8"/>
+        <v>0.28467153284671531</v>
+      </c>
+      <c r="G232" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B233">
+        <v>137</v>
+      </c>
+      <c r="C233">
+        <v>41</v>
+      </c>
+      <c r="D233">
+        <v>43</v>
+      </c>
+      <c r="E233">
+        <v>11</v>
+      </c>
+      <c r="F233" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G233" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2558139534883721</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3288341-3EA8-684C-A2EB-8A00F34A744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333B5B67-0758-5A45-9363-07967A8B1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G233" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G234" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F233" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F234" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6253,6 +6253,31 @@
         <v>0.29927007299270075</v>
       </c>
       <c r="G233" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B234">
+        <v>137</v>
+      </c>
+      <c r="C234">
+        <v>41</v>
+      </c>
+      <c r="D234">
+        <v>43</v>
+      </c>
+      <c r="E234">
+        <v>11</v>
+      </c>
+      <c r="F234" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G234" s="2">
         <f t="shared" si="7"/>
         <v>0.2558139534883721</v>
       </c>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333B5B67-0758-5A45-9363-07967A8B1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCADD5B-FDC4-1F48-841E-E85897EF3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G234" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G236" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F234" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F236" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6280,6 +6280,56 @@
       <c r="G234" s="2">
         <f t="shared" si="7"/>
         <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B235">
+        <v>137</v>
+      </c>
+      <c r="C235">
+        <v>41</v>
+      </c>
+      <c r="D235">
+        <v>43</v>
+      </c>
+      <c r="E235">
+        <v>12</v>
+      </c>
+      <c r="F235" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G235" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27906976744186046</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B236">
+        <v>137</v>
+      </c>
+      <c r="C236">
+        <v>41</v>
+      </c>
+      <c r="D236">
+        <v>43</v>
+      </c>
+      <c r="E236">
+        <v>12</v>
+      </c>
+      <c r="F236" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G236" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27906976744186046</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCADD5B-FDC4-1F48-841E-E85897EF3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CB9B4-CBEE-2F48-9BF2-171E18A5BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222"/>
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G236" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G238" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F236" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F238" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6330,6 +6330,56 @@
       <c r="G236" s="2">
         <f t="shared" si="7"/>
         <v>0.27906976744186046</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B237">
+        <v>137</v>
+      </c>
+      <c r="C237">
+        <v>41</v>
+      </c>
+      <c r="D237">
+        <v>43</v>
+      </c>
+      <c r="E237">
+        <v>11</v>
+      </c>
+      <c r="F237" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29927007299270075</v>
+      </c>
+      <c r="G237" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B238">
+        <v>137</v>
+      </c>
+      <c r="C238">
+        <v>42</v>
+      </c>
+      <c r="D238">
+        <v>47</v>
+      </c>
+      <c r="E238">
+        <v>15</v>
+      </c>
+      <c r="F238" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30656934306569344</v>
+      </c>
+      <c r="G238" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31914893617021278</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CB9B4-CBEE-2F48-9BF2-171E18A5BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DAD45A-8739-D640-A7AD-73AF6523B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G238" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G258" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F238" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F258" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6380,6 +6380,506 @@
       <c r="G238" s="2">
         <f t="shared" si="7"/>
         <v>0.31914893617021278</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B239">
+        <v>137</v>
+      </c>
+      <c r="C239">
+        <v>42</v>
+      </c>
+      <c r="D239">
+        <v>47</v>
+      </c>
+      <c r="E239">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30656934306569344</v>
+      </c>
+      <c r="G239" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23404255319148937</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B240">
+        <v>127</v>
+      </c>
+      <c r="C240">
+        <v>38</v>
+      </c>
+      <c r="D240">
+        <v>47</v>
+      </c>
+      <c r="E240">
+        <v>10</v>
+      </c>
+      <c r="F240" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29921259842519687</v>
+      </c>
+      <c r="G240" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21276595744680851</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B241">
+        <v>127</v>
+      </c>
+      <c r="C241">
+        <v>35</v>
+      </c>
+      <c r="D241">
+        <v>47</v>
+      </c>
+      <c r="E241">
+        <v>11</v>
+      </c>
+      <c r="F241" s="2">
+        <f t="shared" si="8"/>
+        <v>0.27559055118110237</v>
+      </c>
+      <c r="G241" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23404255319148937</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B242">
+        <v>127</v>
+      </c>
+      <c r="C242">
+        <v>32</v>
+      </c>
+      <c r="D242">
+        <v>47</v>
+      </c>
+      <c r="E242">
+        <v>12</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25196850393700787</v>
+      </c>
+      <c r="G242" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25531914893617019</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B243">
+        <v>127</v>
+      </c>
+      <c r="C243">
+        <v>32</v>
+      </c>
+      <c r="D243">
+        <v>47</v>
+      </c>
+      <c r="E243">
+        <v>11</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25196850393700787</v>
+      </c>
+      <c r="G243" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23404255319148937</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B244">
+        <v>127</v>
+      </c>
+      <c r="C244">
+        <v>30</v>
+      </c>
+      <c r="D244">
+        <v>47</v>
+      </c>
+      <c r="E244">
+        <v>10</v>
+      </c>
+      <c r="F244" s="2">
+        <f t="shared" si="8"/>
+        <v>0.23622047244094488</v>
+      </c>
+      <c r="G244" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21276595744680851</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B245">
+        <v>127</v>
+      </c>
+      <c r="C245">
+        <v>27</v>
+      </c>
+      <c r="D245">
+        <v>47</v>
+      </c>
+      <c r="E245">
+        <v>9</v>
+      </c>
+      <c r="F245" s="2">
+        <f t="shared" si="8"/>
+        <v>0.2125984251968504</v>
+      </c>
+      <c r="G245" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19148936170212766</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B246">
+        <v>127</v>
+      </c>
+      <c r="C246">
+        <v>25</v>
+      </c>
+      <c r="D246">
+        <v>47</v>
+      </c>
+      <c r="E246">
+        <v>7</v>
+      </c>
+      <c r="F246" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19685039370078741</v>
+      </c>
+      <c r="G246" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14893617021276595</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B247">
+        <v>127</v>
+      </c>
+      <c r="C247">
+        <v>24</v>
+      </c>
+      <c r="D247">
+        <v>47</v>
+      </c>
+      <c r="E247">
+        <v>6</v>
+      </c>
+      <c r="F247" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="G247" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1276595744680851</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B248">
+        <v>127</v>
+      </c>
+      <c r="C248">
+        <v>24</v>
+      </c>
+      <c r="D248">
+        <v>47</v>
+      </c>
+      <c r="E248">
+        <v>9</v>
+      </c>
+      <c r="F248" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="G248" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19148936170212766</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B249">
+        <v>127</v>
+      </c>
+      <c r="C249">
+        <v>25</v>
+      </c>
+      <c r="D249">
+        <v>48</v>
+      </c>
+      <c r="E249">
+        <v>9</v>
+      </c>
+      <c r="F249" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19685039370078741</v>
+      </c>
+      <c r="G249" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B250">
+        <v>127</v>
+      </c>
+      <c r="C250">
+        <v>24</v>
+      </c>
+      <c r="D250">
+        <v>48</v>
+      </c>
+      <c r="E250">
+        <v>9</v>
+      </c>
+      <c r="F250" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="G250" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B251">
+        <v>127</v>
+      </c>
+      <c r="C251">
+        <v>24</v>
+      </c>
+      <c r="D251">
+        <v>48</v>
+      </c>
+      <c r="E251">
+        <v>9</v>
+      </c>
+      <c r="F251" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="G251" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B252">
+        <v>127</v>
+      </c>
+      <c r="C252">
+        <v>24</v>
+      </c>
+      <c r="D252">
+        <v>47</v>
+      </c>
+      <c r="E252">
+        <v>8</v>
+      </c>
+      <c r="F252" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="G252" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1702127659574468</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B253">
+        <v>127</v>
+      </c>
+      <c r="C253">
+        <v>26</v>
+      </c>
+      <c r="D253">
+        <v>38</v>
+      </c>
+      <c r="E253">
+        <v>12</v>
+      </c>
+      <c r="F253" s="2">
+        <f t="shared" si="8"/>
+        <v>0.20472440944881889</v>
+      </c>
+      <c r="G253" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B254">
+        <v>127</v>
+      </c>
+      <c r="C254">
+        <v>25</v>
+      </c>
+      <c r="D254">
+        <v>38</v>
+      </c>
+      <c r="E254">
+        <v>15</v>
+      </c>
+      <c r="F254" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19685039370078741</v>
+      </c>
+      <c r="G254" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B255">
+        <v>127</v>
+      </c>
+      <c r="C255">
+        <v>23</v>
+      </c>
+      <c r="D255">
+        <v>38</v>
+      </c>
+      <c r="E255">
+        <v>11</v>
+      </c>
+      <c r="F255" s="2">
+        <f t="shared" si="8"/>
+        <v>0.18110236220472442</v>
+      </c>
+      <c r="G255" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B256">
+        <v>127</v>
+      </c>
+      <c r="C256">
+        <v>24</v>
+      </c>
+      <c r="D256">
+        <v>38</v>
+      </c>
+      <c r="E256">
+        <v>10</v>
+      </c>
+      <c r="F256" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="G256" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B257">
+        <v>127</v>
+      </c>
+      <c r="C257">
+        <v>23</v>
+      </c>
+      <c r="D257">
+        <v>38</v>
+      </c>
+      <c r="E257">
+        <v>9</v>
+      </c>
+      <c r="F257" s="2">
+        <f t="shared" si="8"/>
+        <v>0.18110236220472442</v>
+      </c>
+      <c r="G257" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B258">
+        <v>127</v>
+      </c>
+      <c r="C258">
+        <v>23</v>
+      </c>
+      <c r="D258">
+        <v>38</v>
+      </c>
+      <c r="E258">
+        <v>8</v>
+      </c>
+      <c r="F258" s="2">
+        <f t="shared" si="8"/>
+        <v>0.18110236220472442</v>
+      </c>
+      <c r="G258" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21052631578947367</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DAD45A-8739-D640-A7AD-73AF6523B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFE1F30-2C02-C64E-A0A3-B5E262EA4BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G258" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G259" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F258" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F259" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6880,6 +6880,31 @@
       <c r="G258" s="2">
         <f t="shared" si="7"/>
         <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B259">
+        <v>127</v>
+      </c>
+      <c r="C259">
+        <v>20</v>
+      </c>
+      <c r="D259">
+        <v>38</v>
+      </c>
+      <c r="E259">
+        <v>9</v>
+      </c>
+      <c r="F259" s="2">
+        <f t="shared" si="8"/>
+        <v>0.15748031496062992</v>
+      </c>
+      <c r="G259" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23684210526315788</v>
       </c>
     </row>
   </sheetData>

--- a/Sergipe/data_general/ocupacao_uti.xlsx
+++ b/Sergipe/data_general/ocupacao_uti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFE1F30-2C02-C64E-A0A3-B5E262EA4BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CC89D-A5F6-0C46-B03B-700855C88668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{397D0FB9-FECF-5A41-9117-EBA7D157FDD4}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C757372-1837-874B-976B-36795771F301}">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="F259" sqref="F259"/>
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,7 +5353,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G259" si="7">E197/D197</f>
+        <f t="shared" ref="G197:G260" si="7">E197/D197</f>
         <v>0.4485294117647059</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" ref="F213:F259" si="8">C213/B213</f>
+        <f t="shared" ref="F213:F261" si="8">C213/B213</f>
         <v>0.35028248587570621</v>
       </c>
       <c r="G213" s="2">
@@ -6905,6 +6905,56 @@
       <c r="G259" s="2">
         <f t="shared" si="7"/>
         <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B260">
+        <v>117</v>
+      </c>
+      <c r="C260">
+        <v>19</v>
+      </c>
+      <c r="D260">
+        <v>38</v>
+      </c>
+      <c r="E260">
+        <v>6</v>
+      </c>
+      <c r="F260" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="G260" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B261">
+        <v>109</v>
+      </c>
+      <c r="C261">
+        <v>19</v>
+      </c>
+      <c r="D261">
+        <v>38</v>
+      </c>
+      <c r="E261">
+        <v>6</v>
+      </c>
+      <c r="F261" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="G261" s="2">
+        <f t="shared" ref="G261" si="9">E261/D261</f>
+        <v>0.15789473684210525</v>
       </c>
     </row>
   </sheetData>
